--- a/data/outputs/management_elsevier/66.xlsx
+++ b/data/outputs/management_elsevier/66.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS230"/>
+  <dimension ref="A1:BU230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -935,6 +945,12 @@
           <t>2-s2.0-84928347304</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>4338</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1145,6 +1161,12 @@
         <is>
           <t>2-s2.0-84928672890</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>2850</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -1335,6 +1357,12 @@
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1552,6 +1580,12 @@
           <t>2-s2.0-84929158727</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>8205</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1775,6 +1809,12 @@
           <t>2-s2.0-84929441543</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>2488</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1968,6 +2008,12 @@
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2180,6 +2226,12 @@
         <is>
           <t>2-s2.0-84929407804</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>2937</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2370,6 +2422,12 @@
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2567,6 +2625,12 @@
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2786,6 +2850,12 @@
           <t>2-s2.0-84930206143</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>3651</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2991,6 +3061,12 @@
           <t>2-s2.0-84930225031</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>4896</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3192,6 +3268,12 @@
           <t>2-s2.0-84930201172</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>2057</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3413,6 +3495,12 @@
           <t>2-s2.0-84934874162</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>5660</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3621,6 +3709,12 @@
         <is>
           <t>2-s2.0-84930934145</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>1568</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -3811,6 +3905,12 @@
       <c r="BQ16" t="inlineStr"/>
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4014,6 +4114,12 @@
           <t>2-s2.0-84931265759</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>3590</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4218,6 +4324,12 @@
         <is>
           <t>2-s2.0-84931265608</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>4887</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -4408,6 +4520,12 @@
       <c r="BQ19" t="inlineStr"/>
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4619,6 +4737,12 @@
           <t>2-s2.0-84931264530</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>5035</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4823,6 +4947,12 @@
         <is>
           <t>2-s2.0-84930946958</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>3850</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -5013,6 +5143,12 @@
       <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5202,6 +5338,12 @@
       <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5395,6 +5537,12 @@
           <t>2-s2.0-84945481442</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1141</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5609,6 +5757,12 @@
         <is>
           <t>2-s2.0-84945488576</t>
         </is>
+      </c>
+      <c r="BT25" t="n">
+        <v>1471</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -5803,6 +5957,12 @@
           <t>2-s2.0-84945438558</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1148</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6012,6 +6172,12 @@
           <t>2-s2.0-84945461845</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1691</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6231,6 +6397,12 @@
           <t>2-s2.0-84945492537</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6434,6 +6606,12 @@
           <t>2-s2.0-84945497175</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1984</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6639,6 +6817,12 @@
           <t>2-s2.0-84945461559</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>3575</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6848,6 +7032,12 @@
           <t>2-s2.0-84928605000</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>13372</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7053,6 +7243,12 @@
           <t>2-s2.0-84930225027</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>3443</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7266,6 +7462,12 @@
           <t>2-s2.0-84930636519</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>16379</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7479,6 +7681,12 @@
           <t>2-s2.0-84931272445</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>20281</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7688,6 +7896,12 @@
           <t>2-s2.0-84931267999</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>5571</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7909,6 +8123,12 @@
           <t>2-s2.0-84931263722</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>10454</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8124,6 +8344,12 @@
           <t>2-s2.0-84931264583</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>6715</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8337,6 +8563,12 @@
           <t>2-s2.0-84930945995</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>3713</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8546,6 +8778,12 @@
           <t>2-s2.0-84936887930</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>9279</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8753,6 +8991,12 @@
           <t>2-s2.0-84945490456</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>9235</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8960,6 +9204,12 @@
           <t>2-s2.0-84945435099</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>5382</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9175,6 +9425,12 @@
           <t>2-s2.0-84921839321</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>4557</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9398,6 +9654,12 @@
           <t>2-s2.0-84921915036</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>13240</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9613,6 +9875,12 @@
           <t>2-s2.0-84922374345</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>3601</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9820,6 +10088,12 @@
           <t>2-s2.0-84922448106</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>10882</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10032,6 +10306,12 @@
         <is>
           <t>2-s2.0-84922758525</t>
         </is>
+      </c>
+      <c r="BT46" t="n">
+        <v>2524</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -10232,6 +10512,12 @@
         <v>3654942</v>
       </c>
       <c r="BS47" t="inlineStr"/>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10439,6 +10725,12 @@
           <t>2-s2.0-84922986598</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>7764</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10648,6 +10940,12 @@
           <t>2-s2.0-84923088644</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>5557</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10855,6 +11153,12 @@
           <t>2-s2.0-84923186942</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>7729</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11068,6 +11372,12 @@
           <t>2-s2.0-84923186365</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>12540</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11273,6 +11583,12 @@
           <t>2-s2.0-84923291296</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>23095</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11494,6 +11810,12 @@
           <t>2-s2.0-84926296347</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>3234</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11707,6 +12029,12 @@
           <t>2-s2.0-84926472146</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>3654</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11928,6 +12256,12 @@
           <t>2-s2.0-84921883616</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>5324</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12142,6 +12476,12 @@
         <is>
           <t>2-s2.0-84921925028</t>
         </is>
+      </c>
+      <c r="BT56" t="n">
+        <v>6145</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -12332,6 +12672,12 @@
       <c r="BQ57" t="inlineStr"/>
       <c r="BR57" t="inlineStr"/>
       <c r="BS57" t="inlineStr"/>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12529,6 +12875,12 @@
       <c r="BQ58" t="inlineStr"/>
       <c r="BR58" t="inlineStr"/>
       <c r="BS58" t="inlineStr"/>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12739,6 +13091,12 @@
         <is>
           <t>2-s2.0-84922150068</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>2451</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -12929,6 +13287,12 @@
       <c r="BQ60" t="inlineStr"/>
       <c r="BR60" t="inlineStr"/>
       <c r="BS60" t="inlineStr"/>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13122,6 +13486,12 @@
       <c r="BQ61" t="inlineStr"/>
       <c r="BR61" t="inlineStr"/>
       <c r="BS61" t="inlineStr"/>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13311,6 +13681,12 @@
       <c r="BQ62" t="inlineStr"/>
       <c r="BR62" t="inlineStr"/>
       <c r="BS62" t="inlineStr"/>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13500,6 +13876,12 @@
       <c r="BQ63" t="inlineStr"/>
       <c r="BR63" t="inlineStr"/>
       <c r="BS63" t="inlineStr"/>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13689,6 +14071,12 @@
       <c r="BQ64" t="inlineStr"/>
       <c r="BR64" t="inlineStr"/>
       <c r="BS64" t="inlineStr"/>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13878,6 +14266,12 @@
       <c r="BQ65" t="inlineStr"/>
       <c r="BR65" t="inlineStr"/>
       <c r="BS65" t="inlineStr"/>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14091,6 +14485,12 @@
           <t>2-s2.0-84922598453</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>3384</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14288,6 +14688,12 @@
           <t>2-s2.0-84923018316</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>1890</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14499,6 +14905,12 @@
           <t>2-s2.0-84922982671</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>5174</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14714,6 +15126,12 @@
           <t>2-s2.0-84923129460</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>4279</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14929,6 +15347,12 @@
           <t>2-s2.0-84923211509</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>3230</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15144,6 +15568,12 @@
           <t>2-s2.0-84923376885</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>3842</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15356,6 +15786,12 @@
         <is>
           <t>2-s2.0-84923699017</t>
         </is>
+      </c>
+      <c r="BT72" t="n">
+        <v>2272</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -15554,6 +15990,12 @@
       <c r="BQ73" t="inlineStr"/>
       <c r="BR73" t="inlineStr"/>
       <c r="BS73" t="inlineStr"/>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15751,6 +16193,12 @@
       <c r="BQ74" t="inlineStr"/>
       <c r="BR74" t="inlineStr"/>
       <c r="BS74" t="inlineStr"/>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15974,6 +16422,12 @@
           <t>2-s2.0-84961359876</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>3718</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16191,6 +16645,12 @@
           <t>2-s2.0-84961295101</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>4511</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16406,6 +16866,12 @@
           <t>2-s2.0-84927515052</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>3454</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16611,6 +17077,12 @@
           <t>2-s2.0-84927518119</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>4810</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16816,6 +17288,12 @@
           <t>2-s2.0-84923365916</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>6259</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17029,6 +17507,12 @@
           <t>2-s2.0-84924371065</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>7027</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17252,6 +17736,12 @@
           <t>2-s2.0-84924769334</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>3696</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17471,6 +17961,12 @@
           <t>2-s2.0-84924770727</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>9542</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17688,6 +18184,12 @@
           <t>2-s2.0-84925760740</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>4820</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17899,6 +18401,12 @@
           <t>2-s2.0-84923379524</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>4605</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18105,6 +18613,12 @@
         <is>
           <t>2-s2.0-84923326643</t>
         </is>
+      </c>
+      <c r="BT85" t="n">
+        <v>2164</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -18295,6 +18809,12 @@
       <c r="BQ86" t="inlineStr"/>
       <c r="BR86" t="inlineStr"/>
       <c r="BS86" t="inlineStr"/>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18488,6 +19008,12 @@
       <c r="BQ87" t="inlineStr"/>
       <c r="BR87" t="inlineStr"/>
       <c r="BS87" t="inlineStr"/>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18697,6 +19223,12 @@
           <t>2-s2.0-84924561789</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>2606</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18905,6 +19437,12 @@
         <is>
           <t>2-s2.0-84924740202</t>
         </is>
+      </c>
+      <c r="BT89" t="n">
+        <v>1623</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -19095,6 +19633,12 @@
       <c r="BQ90" t="inlineStr"/>
       <c r="BR90" t="inlineStr"/>
       <c r="BS90" t="inlineStr"/>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19310,6 +19854,12 @@
           <t>2-s2.0-84925321551</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>3537</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19523,6 +20073,12 @@
           <t>2-s2.0-84925297875</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>1977</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19738,6 +20294,12 @@
           <t>2-s2.0-84909641489</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>18989</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19947,6 +20509,12 @@
           <t>2-s2.0-84910681173</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>20111</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20158,6 +20726,12 @@
           <t>2-s2.0-84911058905</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>3516</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20365,6 +20939,12 @@
           <t>2-s2.0-84911410714</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>7950</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20570,6 +21150,12 @@
           <t>2-s2.0-84911440350</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>3445</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20785,6 +21371,12 @@
           <t>2-s2.0-84911434563</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>8386</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21000,6 +21592,12 @@
           <t>2-s2.0-84911897954</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>4665</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21213,6 +21811,12 @@
           <t>2-s2.0-84911918868</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>5475</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21434,6 +22038,12 @@
           <t>2-s2.0-84911879416</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>5967</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21649,6 +22259,12 @@
           <t>2-s2.0-84913532114</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>3887</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21872,6 +22488,12 @@
           <t>2-s2.0-84916217322</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>4268</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22091,6 +22713,12 @@
           <t>2-s2.0-84916891527</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>5114</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22298,6 +22926,12 @@
           <t>2-s2.0-84916927711</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>9743</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22513,6 +23147,12 @@
           <t>2-s2.0-84918838388</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>173194</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22726,6 +23366,12 @@
           <t>2-s2.0-84918817593</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>8655</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22941,6 +23587,12 @@
           <t>2-s2.0-84918809608</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>7608</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23152,6 +23804,12 @@
           <t>2-s2.0-84937218003</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>5969</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23357,6 +24015,12 @@
           <t>2-s2.0-84920687270</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>4527</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23570,6 +24234,12 @@
           <t>2-s2.0-84920896611</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>3766</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23789,6 +24459,12 @@
           <t>2-s2.0-84922514891</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>6487</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24004,6 +24680,12 @@
           <t>2-s2.0-84910630028</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>6457</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24211,6 +24893,12 @@
           <t>2-s2.0-84911419712</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>4711</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24434,6 +25122,12 @@
           <t>2-s2.0-84911403432</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>7561</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24643,6 +25337,12 @@
           <t>2-s2.0-84911465671</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>4364</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24860,6 +25560,12 @@
           <t>2-s2.0-84911918003</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>3885</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25065,6 +25771,12 @@
           <t>2-s2.0-84913596575</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>4559</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25286,6 +25998,12 @@
           <t>2-s2.0-84916203295</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>5018</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25505,6 +26223,12 @@
           <t>2-s2.0-84916887232</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>3435</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25727,6 +26451,12 @@
         <is>
           <t>2-s2.0-84918771401</t>
         </is>
+      </c>
+      <c r="BT121" t="n">
+        <v>3913</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="122">
@@ -25919,6 +26649,12 @@
         <v>4512685</v>
       </c>
       <c r="BS122" t="inlineStr"/>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26131,6 +26867,12 @@
         <is>
           <t>2-s2.0-84918819386</t>
         </is>
+      </c>
+      <c r="BT123" t="n">
+        <v>3168</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -26321,6 +27063,12 @@
       <c r="BQ124" t="inlineStr"/>
       <c r="BR124" t="inlineStr"/>
       <c r="BS124" t="inlineStr"/>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26510,6 +27258,12 @@
       <c r="BQ125" t="inlineStr"/>
       <c r="BR125" t="inlineStr"/>
       <c r="BS125" t="inlineStr"/>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26725,6 +27479,12 @@
           <t>2-s2.0-84919884381</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>4303</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26938,6 +27698,12 @@
           <t>2-s2.0-84930271288</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>2764</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27155,6 +27921,12 @@
           <t>2-s2.0-84937112971</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>7404</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27368,6 +28140,12 @@
           <t>2-s2.0-84920261212</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>4767</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27583,6 +28361,12 @@
           <t>2-s2.0-84920749839</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>8397</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27801,6 +28585,12 @@
         <is>
           <t>2-s2.0-84920689905</t>
         </is>
+      </c>
+      <c r="BT131" t="n">
+        <v>8125</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="132">
@@ -27991,6 +28781,12 @@
       <c r="BQ132" t="inlineStr"/>
       <c r="BR132" t="inlineStr"/>
       <c r="BS132" t="inlineStr"/>
+      <c r="BT132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28198,6 +28994,12 @@
           <t>2-s2.0-84920689703</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>5931</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28411,6 +29213,12 @@
           <t>2-s2.0-84920913743</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>6820</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28632,6 +29440,12 @@
           <t>2-s2.0-84921530342</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>4570</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28841,6 +29655,12 @@
           <t>2-s2.0-84921480957</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>3642</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29048,6 +29868,12 @@
           <t>2-s2.0-84920114308</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>7558</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29255,6 +30081,12 @@
           <t>2-s2.0-84920159462</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>5760</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29470,6 +30302,12 @@
           <t>2-s2.0-84920194541</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>7395</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29679,6 +30517,12 @@
           <t>2-s2.0-84920167920</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>2387</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29894,6 +30738,12 @@
           <t>2-s2.0-84920158742</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>30947</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30101,6 +30951,12 @@
           <t>2-s2.0-84920149685</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>55976</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30314,6 +31170,12 @@
           <t>2-s2.0-84907822237</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>3323</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30529,6 +31391,12 @@
           <t>2-s2.0-84907980295</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>16366</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30742,6 +31610,12 @@
           <t>2-s2.0-84908006433</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>7766</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30955,6 +31829,12 @@
           <t>2-s2.0-84908326214</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>12453</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31160,6 +32040,12 @@
           <t>2-s2.0-84908191148</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>8266</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31367,6 +32253,12 @@
           <t>2-s2.0-84908335438</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>10288</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31582,6 +32474,12 @@
           <t>2-s2.0-84908577403</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>7786</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31797,6 +32695,12 @@
           <t>2-s2.0-84908638672</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>17325</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32010,6 +32914,12 @@
           <t>2-s2.0-84920140664</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>5137</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32229,6 +33139,12 @@
           <t>2-s2.0-84920115082</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>2645</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32448,6 +33364,12 @@
           <t>2-s2.0-84920138863</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>4361</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32652,6 +33574,12 @@
         <is>
           <t>2-s2.0-84920176401</t>
         </is>
+      </c>
+      <c r="BT154" t="n">
+        <v>3272</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="155">
@@ -32842,6 +33770,12 @@
       <c r="BQ155" t="inlineStr"/>
       <c r="BR155" t="inlineStr"/>
       <c r="BS155" t="inlineStr"/>
+      <c r="BT155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33057,6 +33991,12 @@
           <t>2-s2.0-84920169402</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>5685</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33262,6 +34202,12 @@
           <t>2-s2.0-84907855681</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>4034</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -33479,6 +34425,12 @@
           <t>2-s2.0-84907705812</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>3442</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -33692,6 +34644,12 @@
           <t>2-s2.0-84907683489</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>2317</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -33896,6 +34854,12 @@
         <is>
           <t>2-s2.0-84908006063</t>
         </is>
+      </c>
+      <c r="BT160" t="n">
+        <v>4185</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="161">
@@ -34086,6 +35050,12 @@
       <c r="BQ161" t="inlineStr"/>
       <c r="BR161" t="inlineStr"/>
       <c r="BS161" t="inlineStr"/>
+      <c r="BT161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34293,6 +35263,12 @@
           <t>2-s2.0-84908010309</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>12231</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -34502,6 +35478,12 @@
           <t>2-s2.0-84908179247</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>1819</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -34707,6 +35689,12 @@
           <t>2-s2.0-84908314602</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>2377</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -34921,6 +35909,12 @@
         <is>
           <t>2-s2.0-84908406149</t>
         </is>
+      </c>
+      <c r="BT165" t="n">
+        <v>3965</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -35111,6 +36105,12 @@
       <c r="BQ166" t="inlineStr"/>
       <c r="BR166" t="inlineStr"/>
       <c r="BS166" t="inlineStr"/>
+      <c r="BT166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35316,6 +36316,12 @@
           <t>2-s2.0-84908575148</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>6774</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -35529,6 +36535,12 @@
           <t>2-s2.0-84908592549</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>1512</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -35738,6 +36750,12 @@
           <t>2-s2.0-84908637492</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>7756</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -35943,6 +36961,12 @@
           <t>2-s2.0-84920119741</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>5023</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -36152,6 +37176,12 @@
           <t>2-s2.0-84920152726</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>1676</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -36359,6 +37389,12 @@
           <t>2-s2.0-84908577386</t>
         </is>
       </c>
+      <c r="BT172" t="n">
+        <v>6020</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -36564,6 +37600,12 @@
           <t>2-s2.0-84903442368</t>
         </is>
       </c>
+      <c r="BT173" t="n">
+        <v>7977</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -36769,6 +37811,12 @@
           <t>2-s2.0-84903546783</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>16779</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -36982,6 +38030,12 @@
           <t>2-s2.0-84903532270</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>12003</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -37195,6 +38249,12 @@
           <t>2-s2.0-84903648212</t>
         </is>
       </c>
+      <c r="BT176" t="n">
+        <v>5247</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -37408,6 +38468,12 @@
           <t>2-s2.0-84903521675</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>15324</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -37613,6 +38679,12 @@
           <t>2-s2.0-84904267950</t>
         </is>
       </c>
+      <c r="BT178" t="n">
+        <v>7838</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -37828,6 +38900,12 @@
           <t>2-s2.0-84904266739</t>
         </is>
       </c>
+      <c r="BT179" t="n">
+        <v>3009</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -38041,6 +39119,12 @@
           <t>2-s2.0-84904353386</t>
         </is>
       </c>
+      <c r="BT180" t="n">
+        <v>4197</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -38254,6 +39338,12 @@
           <t>2-s2.0-84904254750</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>28929</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -38465,6 +39555,12 @@
           <t>2-s2.0-84904490833</t>
         </is>
       </c>
+      <c r="BT182" t="n">
+        <v>3324</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -38678,6 +39774,12 @@
           <t>2-s2.0-84904909300</t>
         </is>
       </c>
+      <c r="BT183" t="n">
+        <v>5189</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -38893,6 +39995,12 @@
           <t>2-s2.0-84904550824</t>
         </is>
       </c>
+      <c r="BT184" t="n">
+        <v>4928</v>
+      </c>
+      <c r="BU184" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -39104,6 +40212,12 @@
           <t>2-s2.0-84904737370</t>
         </is>
       </c>
+      <c r="BT185" t="n">
+        <v>7486</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -39311,6 +40425,12 @@
           <t>2-s2.0-84904891950</t>
         </is>
       </c>
+      <c r="BT186" t="n">
+        <v>15793</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -39522,6 +40642,12 @@
           <t>2-s2.0-84905394279</t>
         </is>
       </c>
+      <c r="BT187" t="n">
+        <v>4775</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -39735,6 +40861,12 @@
           <t>2-s2.0-84905403902</t>
         </is>
       </c>
+      <c r="BT188" t="n">
+        <v>5240</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -39944,6 +41076,12 @@
           <t>2-s2.0-84907070372</t>
         </is>
       </c>
+      <c r="BT189" t="n">
+        <v>8487</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -40157,6 +41295,12 @@
           <t>2-s2.0-84907081350</t>
         </is>
       </c>
+      <c r="BT190" t="n">
+        <v>10295</v>
+      </c>
+      <c r="BU190" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -40370,6 +41514,12 @@
           <t>2-s2.0-84907083288</t>
         </is>
       </c>
+      <c r="BT191" t="n">
+        <v>3080</v>
+      </c>
+      <c r="BU191" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -40583,6 +41733,12 @@
           <t>2-s2.0-84907087642</t>
         </is>
       </c>
+      <c r="BT192" t="n">
+        <v>6897</v>
+      </c>
+      <c r="BU192" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -40798,6 +41954,12 @@
           <t>2-s2.0-84907072619</t>
         </is>
       </c>
+      <c r="BT193" t="n">
+        <v>4835</v>
+      </c>
+      <c r="BU193" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -41003,6 +42165,12 @@
           <t>2-s2.0-84907087517</t>
         </is>
       </c>
+      <c r="BT194" t="n">
+        <v>17587</v>
+      </c>
+      <c r="BU194" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -41208,6 +42376,12 @@
           <t>2-s2.0-84907083696</t>
         </is>
       </c>
+      <c r="BT195" t="n">
+        <v>4445</v>
+      </c>
+      <c r="BU195" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -41417,6 +42591,12 @@
           <t>2-s2.0-84907087780</t>
         </is>
       </c>
+      <c r="BT196" t="n">
+        <v>10715</v>
+      </c>
+      <c r="BU196" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -41626,6 +42806,12 @@
           <t>2-s2.0-84907081347</t>
         </is>
       </c>
+      <c r="BT197" t="n">
+        <v>8783</v>
+      </c>
+      <c r="BU197" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -41835,6 +43021,12 @@
           <t>2-s2.0-84907074901</t>
         </is>
       </c>
+      <c r="BT198" t="n">
+        <v>16442</v>
+      </c>
+      <c r="BU198" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -42054,6 +43246,12 @@
           <t>2-s2.0-84907082215</t>
         </is>
       </c>
+      <c r="BT199" t="n">
+        <v>9283</v>
+      </c>
+      <c r="BU199" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -42259,6 +43457,12 @@
           <t>2-s2.0-84907072616</t>
         </is>
       </c>
+      <c r="BT200" t="n">
+        <v>3757</v>
+      </c>
+      <c r="BU200" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -42472,6 +43676,12 @@
           <t>2-s2.0-84902958788</t>
         </is>
       </c>
+      <c r="BT201" t="n">
+        <v>6961</v>
+      </c>
+      <c r="BU201" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -42676,6 +43886,12 @@
         <is>
           <t>2-s2.0-84903638898</t>
         </is>
+      </c>
+      <c r="BT202" t="n">
+        <v>2442</v>
+      </c>
+      <c r="BU202" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -42866,6 +44082,12 @@
       <c r="BQ203" t="inlineStr"/>
       <c r="BR203" t="inlineStr"/>
       <c r="BS203" t="inlineStr"/>
+      <c r="BT203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -43079,6 +44301,12 @@
           <t>2-s2.0-84904111683</t>
         </is>
       </c>
+      <c r="BT204" t="n">
+        <v>19450</v>
+      </c>
+      <c r="BU204" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -43286,6 +44514,12 @@
           <t>2-s2.0-84904123499</t>
         </is>
       </c>
+      <c r="BT205" t="n">
+        <v>2415</v>
+      </c>
+      <c r="BU205" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -43497,6 +44731,12 @@
           <t>2-s2.0-84904249735</t>
         </is>
       </c>
+      <c r="BT206" t="n">
+        <v>3980</v>
+      </c>
+      <c r="BU206" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -43702,6 +44942,12 @@
           <t>2-s2.0-84904263873</t>
         </is>
       </c>
+      <c r="BT207" t="n">
+        <v>6445</v>
+      </c>
+      <c r="BU207" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -43917,6 +45163,12 @@
           <t>2-s2.0-84904356658</t>
         </is>
       </c>
+      <c r="BT208" t="n">
+        <v>7448</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -44130,6 +45382,12 @@
           <t>2-s2.0-84904382623</t>
         </is>
       </c>
+      <c r="BT209" t="n">
+        <v>10395</v>
+      </c>
+      <c r="BU209" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -44343,6 +45601,12 @@
           <t>2-s2.0-84904577035</t>
         </is>
       </c>
+      <c r="BT210" t="n">
+        <v>3878</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -44556,6 +45820,12 @@
           <t>2-s2.0-84904747690</t>
         </is>
       </c>
+      <c r="BT211" t="n">
+        <v>4961</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -44761,6 +46031,12 @@
           <t>2-s2.0-84904736693</t>
         </is>
       </c>
+      <c r="BT212" t="n">
+        <v>7050</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -44966,6 +46242,12 @@
           <t>2-s2.0-84904762421</t>
         </is>
       </c>
+      <c r="BT213" t="n">
+        <v>3202</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -45171,6 +46453,12 @@
           <t>2-s2.0-84904893455</t>
         </is>
       </c>
+      <c r="BT214" t="n">
+        <v>3249</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -45384,6 +46672,12 @@
           <t>2-s2.0-84905247937</t>
         </is>
       </c>
+      <c r="BT215" t="n">
+        <v>11275</v>
+      </c>
+      <c r="BU215" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -45599,6 +46893,12 @@
           <t>2-s2.0-84905372214</t>
         </is>
       </c>
+      <c r="BT216" t="n">
+        <v>3688</v>
+      </c>
+      <c r="BU216" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -45804,6 +47104,12 @@
           <t>2-s2.0-84907066918</t>
         </is>
       </c>
+      <c r="BT217" t="n">
+        <v>3400</v>
+      </c>
+      <c r="BU217" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -46017,6 +47323,12 @@
           <t>2-s2.0-84907068384</t>
         </is>
       </c>
+      <c r="BT218" t="n">
+        <v>3002</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -46232,6 +47544,12 @@
           <t>2-s2.0-84907070376</t>
         </is>
       </c>
+      <c r="BT219" t="n">
+        <v>6334</v>
+      </c>
+      <c r="BU219" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -46439,6 +47757,12 @@
           <t>2-s2.0-84907068383</t>
         </is>
       </c>
+      <c r="BT220" t="n">
+        <v>8067</v>
+      </c>
+      <c r="BU220" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -46644,6 +47968,12 @@
           <t>2-s2.0-84907080680</t>
         </is>
       </c>
+      <c r="BT221" t="n">
+        <v>5025</v>
+      </c>
+      <c r="BU221" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -46849,6 +48179,12 @@
           <t>2-s2.0-84907069526</t>
         </is>
       </c>
+      <c r="BT222" t="n">
+        <v>6214</v>
+      </c>
+      <c r="BU222" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -47064,6 +48400,12 @@
           <t>2-s2.0-84907072614</t>
         </is>
       </c>
+      <c r="BT223" t="n">
+        <v>3532</v>
+      </c>
+      <c r="BU223" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -47269,6 +48611,12 @@
           <t>2-s2.0-84907341933</t>
         </is>
       </c>
+      <c r="BT224" t="n">
+        <v>16728</v>
+      </c>
+      <c r="BU224" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -47473,6 +48821,12 @@
         <is>
           <t>2-s2.0-84907075534</t>
         </is>
+      </c>
+      <c r="BT225" t="n">
+        <v>3782</v>
+      </c>
+      <c r="BU225" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="226">
@@ -47671,6 +49025,12 @@
       <c r="BQ226" t="inlineStr"/>
       <c r="BR226" t="inlineStr"/>
       <c r="BS226" t="inlineStr"/>
+      <c r="BT226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -47880,6 +49240,12 @@
           <t>2-s2.0-84907076337</t>
         </is>
       </c>
+      <c r="BT227" t="n">
+        <v>5813</v>
+      </c>
+      <c r="BU227" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -48085,6 +49451,12 @@
           <t>2-s2.0-84907065742</t>
         </is>
       </c>
+      <c r="BT228" t="n">
+        <v>5024</v>
+      </c>
+      <c r="BU228" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -48294,6 +49666,12 @@
           <t>2-s2.0-84908440050</t>
         </is>
       </c>
+      <c r="BT229" t="n">
+        <v>5742</v>
+      </c>
+      <c r="BU229" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -48499,6 +49877,12 @@
           <t>2-s2.0-84908377185</t>
         </is>
       </c>
+      <c r="BT230" t="n">
+        <v>6660</v>
+      </c>
+      <c r="BU230" t="n">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
